--- a/ExternalData/My.xlsx
+++ b/ExternalData/My.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\TestYentra\Comcast_Selenium_Framework\ExternalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA6A6D-F826-457E-AC5A-ECA2B1B5676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D911C1-9516-4821-8EF3-C3847F2421D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="760" windowWidth="14420" windowHeight="9520" xr2:uid="{3A9CD632-DE2F-46C7-BE0B-415C109E377D}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="16530" windowHeight="9520" xr2:uid="{3A9CD632-DE2F-46C7-BE0B-415C109E377D}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>TC_ID</t>
   </si>
@@ -85,10 +85,22 @@
     <t>Hi Hello</t>
   </si>
   <si>
-    <t>contact Name</t>
-  </si>
-  <si>
-    <t>ss</t>
+    <t>TectCaseName</t>
+  </si>
+  <si>
+    <t>My Subject</t>
+  </si>
+  <si>
+    <t>Mavullathil house,PO Pinarayi,670741</t>
+  </si>
+  <si>
+    <t>permanent adress</t>
+  </si>
+  <si>
+    <t>billing adress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreelakshmi sreenivasa pg </t>
   </si>
 </sst>
 </file>
@@ -440,22 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC888170-55DD-4AA0-AA1E-08EBDA8F6E1A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -477,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -493,11 +504,8 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -513,11 +521,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -528,12 +533,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
